--- a/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.756344171828475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3336118418950304</v>
+        <v>0.3336118418950318</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.07832512589694</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5962360201180641</v>
+        <v>0.2146717979528961</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.759769445179647</v>
+        <v>-1.173542476500194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.164338089517067</v>
+        <v>-3.949092028687234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7661586438971209</v>
+        <v>-1.017031859091196</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.2882642220874</v>
+        <v>-3.258920808834267</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.787974560445369</v>
+        <v>-4.588619770525312</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.195786943503664</v>
+        <v>1.16365104903059</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5250662197175204</v>
+        <v>-0.5765799989149314</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.39781675199839</v>
+        <v>-3.250214432779019</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.56146179712497</v>
+        <v>10.97572624804386</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.424891629597701</v>
+        <v>8.904607043070198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.870812814480876</v>
+        <v>4.502063848377564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.617511371517255</v>
+        <v>9.164316500678465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.84807235923591</v>
+        <v>6.159102071991563</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.203760724544432</v>
+        <v>3.320520599132316</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.133077146418541</v>
+        <v>8.411494606489187</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.060402313426863</v>
+        <v>6.148438455302833</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.524927074682682</v>
+        <v>2.91897647085115</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5261194799743564</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.04672619992796424</v>
+        <v>0.04672619992796443</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5540473074387833</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05033422318662124</v>
+        <v>-0.02146307779708112</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2128899836030296</v>
+        <v>-0.1721736303585731</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4478597359926069</v>
+        <v>-0.4166904932815114</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1012739160552398</v>
+        <v>-0.1442428356882746</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3501349113873786</v>
+        <v>-0.3462849812013872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4882387342033217</v>
+        <v>-0.4618703316224552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1295787750537135</v>
+        <v>0.129602058208502</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07222960128218731</v>
+        <v>-0.0798475489242236</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3672984624664764</v>
+        <v>-0.3629294099032364</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.147940438596076</v>
+        <v>2.151974469590842</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.74619462711872</v>
+        <v>1.733208052935187</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.105903834052533</v>
+        <v>0.9793910649253432</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.024879860662871</v>
+        <v>1.895666118949651</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.123373878772366</v>
+        <v>1.317864090647711</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6870089476729002</v>
+        <v>0.7709385097174518</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.389642868249852</v>
+        <v>1.489074776794786</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.122385314413725</v>
+        <v>1.050938898245524</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4639451763177057</v>
+        <v>0.5229680467425992</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.379442116315267</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1951523977233471</v>
+        <v>0.1951523977233457</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.316535737533285</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.807294829578056</v>
+        <v>2.398251502083571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.421487312119404</v>
+        <v>-2.362787841124929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.764445009524102</v>
+        <v>-5.963211982811069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8355306007030738</v>
+        <v>-1.324944192264477</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.859722881669933</v>
+        <v>-1.712851965674764</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.760950149370535</v>
+        <v>-2.758115256606732</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.593540966413861</v>
+        <v>1.666815400275154</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.311650035332289</v>
+        <v>-1.096096890681564</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.502318322892862</v>
+        <v>-3.281903538003774</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.46879954762993</v>
+        <v>10.09486833719618</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.13767550962076</v>
+        <v>4.020684171851133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2161942441409793</v>
+        <v>0.18683947004364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.322548549574453</v>
+        <v>5.466432541698592</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.632416662458412</v>
+        <v>4.899216122506818</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.942164085077263</v>
+        <v>3.030308875336889</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.792697714865668</v>
+        <v>6.69533825984802</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.439819111559487</v>
+        <v>3.316671347927714</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.02078656529889</v>
+        <v>0.8650767667364057</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2223806467880333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03146062884021365</v>
+        <v>0.03146062884021343</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6838308700040222</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3025572896902926</v>
+        <v>0.2823233163723233</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3163229342722416</v>
+        <v>-0.3115367059440693</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7095868698015144</v>
+        <v>-0.7209830682868088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1043416754543134</v>
+        <v>-0.1922938452003935</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2481840496454113</v>
+        <v>-0.228396908200514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3548556563543954</v>
+        <v>-0.3547566203615871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2027029253997691</v>
+        <v>0.2018967157160155</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.190516194975283</v>
+        <v>-0.147405492191192</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4613319390020046</v>
+        <v>-0.4576282847633059</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.116063300651456</v>
+        <v>2.104525916356192</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8205140932946244</v>
+        <v>0.8201972852702342</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1038151970750706</v>
+        <v>0.08409077976404825</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.17304560824254</v>
+        <v>1.154951103643461</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9370217251336451</v>
+        <v>1.029325447547127</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6397158598589641</v>
+        <v>0.5970338579511391</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.294576868778726</v>
+        <v>1.25342547140197</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6616573252155356</v>
+        <v>0.6198098342616015</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2297632045740789</v>
+        <v>0.1542140440625915</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.51246805925348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.247289125579835</v>
+        <v>3.247289125579834</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.606802364406754</v>
@@ -1092,7 +1092,7 @@
         <v>3.676586706954409</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.581269583498476</v>
+        <v>5.581269583498474</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.465767451614629</v>
+        <v>2.43911231906711</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.072005137272898</v>
+        <v>-1.823953161841542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3269658937232278</v>
+        <v>-0.3408842106126602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.171006421580845</v>
+        <v>4.973106273364462</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.535736457034286</v>
+        <v>2.550969518318518</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.133303699318341</v>
+        <v>4.812920004700418</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.824621595168985</v>
+        <v>4.857432799468491</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.458003598265084</v>
+        <v>1.480916073949617</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.373839392936246</v>
+        <v>3.424246003044087</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.19207912965246</v>
+        <v>11.12859160160192</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.0960467086749</v>
+        <v>4.649157919657783</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.257516898715269</v>
+        <v>6.982164183963313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.50004059169712</v>
+        <v>12.6176225546053</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.379569163692747</v>
+        <v>9.211944145062384</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.88924855959502</v>
+        <v>10.94543628979528</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.23411874834854</v>
+        <v>10.48282869207819</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.13829744958426</v>
+        <v>6.351816138263739</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.935379378849305</v>
+        <v>8.01149322434298</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3406587466311558</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7313988792695645</v>
+        <v>0.7313988792695642</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>4.30339188348022</v>
@@ -1197,7 +1197,7 @@
         <v>1.152885556151034</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.75014642674665</v>
+        <v>1.750146426746649</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3466822254841421</v>
+        <v>0.322983644393318</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3834516591457634</v>
+        <v>-0.294411003758591</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1167669364708095</v>
+        <v>-0.09123194145418537</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.25292962661501</v>
+        <v>1.342969915603435</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5628266406486381</v>
+        <v>0.6374948636862443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.289188259217095</v>
+        <v>1.278461981904931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.042041690141201</v>
+        <v>1.076341701535626</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3103683213258887</v>
+        <v>0.3228112525043781</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7413917864583771</v>
+        <v>0.821407913864894</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.804129018017528</v>
+        <v>3.707000510880533</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.818708220207781</v>
+        <v>1.639071125622882</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.768938536067529</v>
+        <v>2.359830502288566</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>12.97254253521363</v>
+        <v>12.07420361259643</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.836307288646966</v>
+        <v>8.447772987919981</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.40849165541248</v>
+        <v>11.89822339431259</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.309467994823999</v>
+        <v>4.442889074333313</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.71668630986574</v>
+        <v>2.81439791639928</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.520431636072248</v>
+        <v>3.825761008002532</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.046879358265213</v>
+        <v>-3.213424895887482</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4842792582001642</v>
+        <v>-0.2539943784213393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.011177074467416</v>
+        <v>-1.833288092515046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9402111889261867</v>
+        <v>0.5608934564962416</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.775019503208177</v>
+        <v>-1.833200414712401</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.570800603523415</v>
+        <v>-1.518936119827914</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1789785946031258</v>
+        <v>0.04124312268268054</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3461671752459307</v>
+        <v>-0.3104365327758436</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.5820310676500163</v>
+        <v>-0.5164813150816031</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.40271090429445</v>
+        <v>3.922684760452703</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.985763685985308</v>
+        <v>7.160072522059105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.480717127285258</v>
+        <v>7.648419149297318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.445721852742292</v>
+        <v>8.624998802854339</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.310167816263781</v>
+        <v>5.095468898772151</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.44294281033782</v>
+        <v>5.833921924771961</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.133507922421853</v>
+        <v>5.058002871855458</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.95650581597218</v>
+        <v>4.755017195748858</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.933350820730118</v>
+        <v>4.943460268533387</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.408320600798077</v>
+        <v>-0.4302364686924771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09726930121915432</v>
+        <v>-0.05762680057875485</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2880085145416405</v>
+        <v>-0.24377663293092</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1059619652205693</v>
+        <v>0.08065709205747806</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2787814009356623</v>
+        <v>-0.2913553616216419</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2485575902146792</v>
+        <v>-0.230485789592518</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02603239484377103</v>
+        <v>-0.008898240257337806</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04992233919150125</v>
+        <v>-0.07796014049121826</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08720894262221952</v>
+        <v>-0.09082273116518128</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.169528343833427</v>
+        <v>0.9924934160402639</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.793152985380462</v>
+        <v>1.734472705415698</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.799118604163295</v>
+        <v>1.736466427646293</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.282759011860719</v>
+        <v>2.36223897227271</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.358046846543889</v>
+        <v>1.258201973955736</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.405193612325568</v>
+        <v>1.532974240957057</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.22356736514602</v>
+        <v>1.176404422933903</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.155648910219072</v>
+        <v>1.074296215956726</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.082821438897978</v>
+        <v>1.054421963038073</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.8885017625553757</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.010654341323105</v>
+        <v>4.010654341323103</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.920391618440419</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.250959345855221</v>
+        <v>-0.256183564470965</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.077360986693146</v>
+        <v>-5.529823040579736</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.820782660791543</v>
+        <v>-4.931206554957416</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.953592271931405</v>
+        <v>-2.943347613027713</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.909160884651468</v>
+        <v>-4.320484172412743</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.222340011034976</v>
+        <v>-0.3868795568315965</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07971539142106518</v>
+        <v>0.2384002879388753</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.099214027877096</v>
+        <v>-3.039081787948328</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.090194824969858</v>
+        <v>-1.410529361920666</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.86854258748684</v>
+        <v>11.43338469449096</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.593596206536133</v>
+        <v>4.10856135042475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.963147799980152</v>
+        <v>3.968394846065882</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.016042256211023</v>
+        <v>8.437407363680897</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.554958732214792</v>
+        <v>5.986534577112701</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.557659531904557</v>
+        <v>9.259921800631282</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.97955957300441</v>
+        <v>8.11429322675429</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.815016241671156</v>
+        <v>3.519439008327339</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.412024735487861</v>
+        <v>5.044241732850282</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1251833089081563</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5650714522948368</v>
+        <v>0.5650714522948364</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5508057013376092</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1585000283128923</v>
+        <v>-0.07092470552979288</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5371581437425131</v>
+        <v>-0.5669397551652444</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4985366562778226</v>
+        <v>-0.5029709460577553</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3492378205263607</v>
+        <v>-0.2911590158917121</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5151971764579641</v>
+        <v>-0.4607497237407143</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1328705676973714</v>
+        <v>-0.05490679971350308</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01273406982906534</v>
+        <v>0.004192707933409827</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.350347792457257</v>
+        <v>-0.343841719716342</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1255514071242936</v>
+        <v>-0.1487908287498021</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.178464820866524</v>
+        <v>2.29512809581533</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8822314692399476</v>
+        <v>0.822446013793444</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8883218372058955</v>
+        <v>0.8015619587047745</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.678075347957198</v>
+        <v>1.774015748519001</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.197462570067511</v>
+        <v>1.355832847622845</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.964900054595321</v>
+        <v>2.118268440953892</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.468179457640759</v>
+        <v>1.562838218098401</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7331514614029885</v>
+        <v>0.593023485860289</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9926329259840792</v>
+        <v>0.9201502612689286</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.479990363793215</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.776500658316086</v>
+        <v>1.776500658316083</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.682955467164586</v>
@@ -1734,7 +1734,7 @@
         <v>2.197301592354134</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.8772924001057</v>
+        <v>1.877292400105701</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.890590320206782</v>
+        <v>4.20701951187588</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.117742503700797</v>
+        <v>-2.978862028269535</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.115852869371457</v>
+        <v>-2.179777999660132</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.04076729274183562</v>
+        <v>0.4403926502897128</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.9061206379815593</v>
+        <v>-0.7792135263149621</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.383200217697281</v>
+        <v>-2.304282026736108</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.355983736442997</v>
+        <v>3.29090759949476</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.8605477822934945</v>
+        <v>-0.9504721639817377</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.8688912793956086</v>
+        <v>-1.23159595066376</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.36270798110092</v>
+        <v>14.7865601734857</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.128514829065042</v>
+        <v>5.894542668524672</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.238331183791921</v>
+        <v>6.131864725757401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.346486604398534</v>
+        <v>9.612008180818659</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.203288632247657</v>
+        <v>7.796784191413211</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.403475636780668</v>
+        <v>5.488075414097919</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.24552029859458</v>
+        <v>10.06172044297429</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.473346849799718</v>
+        <v>5.014250031477092</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.679403158921783</v>
+        <v>4.282435053309521</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.6125526207757986</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3127020538284778</v>
+        <v>0.3127020538284773</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.131910519510769</v>
@@ -1839,7 +1839,7 @@
         <v>0.372163004698076</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3179621690310043</v>
+        <v>0.3179621690310045</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4506701351988283</v>
+        <v>0.4730453060951004</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4185507026230499</v>
+        <v>-0.4251939112866451</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2710316136560067</v>
+        <v>-0.2580263898111821</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0487892646831942</v>
+        <v>-0.0001699148061565076</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1579031815809414</v>
+        <v>-0.1237933768532417</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3239853006830043</v>
+        <v>-0.2814850341322258</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4229962311663584</v>
+        <v>0.4109164610329017</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1434655212671143</v>
+        <v>-0.1482498973968248</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1128133805454178</v>
+        <v>-0.1664909359997733</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.512101436716331</v>
+        <v>3.400954505063585</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.252704261437308</v>
+        <v>1.348712757293648</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.605075247634581</v>
+        <v>1.478251677445746</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.396794009100297</v>
+        <v>2.634431520468832</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.226048770796564</v>
+        <v>1.994422772255434</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.495176421695079</v>
+        <v>1.571161195389369</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.240665435042501</v>
+        <v>2.158167119877115</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.209844868431565</v>
+        <v>1.037429086536051</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.064188774144102</v>
+        <v>0.925483717605148</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>1.02701636737947</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.207303808504399</v>
+        <v>3.207303808504403</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.243824013319848</v>
+        <v>-2.289642262629181</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.384687139481238</v>
+        <v>-2.67238685768819</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5234052092323485</v>
+        <v>-0.4776269390728514</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.643996748712848</v>
+        <v>-2.850058096482049</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.415272687267157</v>
+        <v>-1.04807160605002</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.7287072987158767</v>
+        <v>0.8841439761832487</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.980665619295829</v>
+        <v>-1.859260485168934</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.229663089754654</v>
+        <v>-0.8953023405399191</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.9583322943836641</v>
+        <v>0.7407668489153405</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.108532644999619</v>
+        <v>3.975818295312993</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.731340492928727</v>
+        <v>4.011399884944759</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.592093962896432</v>
+        <v>6.774145014752402</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.920586818616426</v>
+        <v>2.794026057818725</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.302079856912462</v>
+        <v>4.600088391894412</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.276019491553257</v>
+        <v>6.455220585599145</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.38178559891606</v>
+        <v>2.38107870491522</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.191163048552307</v>
+        <v>3.357054860779808</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.822511252430158</v>
+        <v>5.384410126241073</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.1471946724618409</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4596791721859534</v>
+        <v>0.459679172185954</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2539678744698368</v>
+        <v>-0.2491688547415582</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2685564788476069</v>
+        <v>-0.2915200608085547</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08491875518717799</v>
+        <v>-0.05367261086172539</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3510180856215767</v>
+        <v>-0.3738511475380897</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1986616497216945</v>
+        <v>-0.1419810939803316</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0971894599583279</v>
+        <v>0.08488815328478293</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2385169744956484</v>
+        <v>-0.2341139963771452</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1573029710214036</v>
+        <v>-0.1221062671253269</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1171963197889892</v>
+        <v>0.08568101449096856</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6541737391656884</v>
+        <v>0.6484417378496519</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6061055484032232</v>
+        <v>0.6304509336722532</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.023668649963827</v>
+        <v>1.053389806340053</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6159379210139564</v>
+        <v>0.5769698436686519</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8520289549157608</v>
+        <v>0.9398343945598773</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.311825819896971</v>
+        <v>1.272484452754172</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3940967308172496</v>
+        <v>0.4057215741976675</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5517335981507652</v>
+        <v>0.5721334716255431</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.019674046984152</v>
+        <v>0.8949806175804008</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>0.903121684803751</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.178396943176538</v>
+        <v>-3.178396943176537</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-2.913038090183628</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.761760189959448</v>
+        <v>-6.019692963110873</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.274721934126515</v>
+        <v>-4.148319824511802</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.353365469443423</v>
+        <v>-5.79240144747201</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.63300341793685</v>
+        <v>-5.740131143319865</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.060885684863151</v>
+        <v>-2.226409672772455</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.50424268744572</v>
+        <v>-5.652502491229516</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-5.006854888755955</v>
+        <v>-4.88962556679078</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.312286326155366</v>
+        <v>-2.284240656220532</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.694580528712827</v>
+        <v>-4.957057527736456</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.6951545048866957</v>
+        <v>-0.5961653682661238</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.32021201619882</v>
+        <v>1.584467201382227</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.3181779760716792</v>
+        <v>-0.4634778933003597</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.07104651415611657</v>
+        <v>-0.1190341175555438</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.948941453130303</v>
+        <v>3.983069206497926</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.8107581460394897</v>
+        <v>-0.7859397681427965</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.167813609037465</v>
+        <v>-0.9964896907283517</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.87663583264528</v>
+        <v>1.983087572255911</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.254758956519527</v>
+        <v>-1.154533016512092</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.1009592297507543</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3553103780195297</v>
+        <v>-0.3553103780195296</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3377492097746476</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6022234432998345</v>
+        <v>-0.6108760423595553</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4402845774659934</v>
+        <v>-0.4142478842434837</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5513290698292913</v>
+        <v>-0.5691956996239937</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5270243412886984</v>
+        <v>-0.5338907524275153</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.20353403077086</v>
+        <v>-0.2088778278179048</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5281183484155061</v>
+        <v>-0.5328366128727379</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5063364630244536</v>
+        <v>-0.5059732257469728</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.236243785248681</v>
+        <v>-0.2402199398722671</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4909247415904522</v>
+        <v>-0.497504450193024</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.08352508839373833</v>
+        <v>-0.0698970901942315</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.193981149819814</v>
+        <v>0.2285938399288197</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.0421218907649693</v>
+        <v>-0.06165221980695175</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.0103564181376422</v>
+        <v>-0.01068539337966986</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5362178499939063</v>
+        <v>0.5255975119790987</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.09518651209285273</v>
+        <v>-0.09995593941359332</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1519549091813643</v>
+        <v>-0.1321799693203613</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2533615985514511</v>
+        <v>0.2706323835116116</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1609153179220635</v>
+        <v>-0.1453184295718906</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>0.771540561929053</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.260856657432236</v>
+        <v>0.2608566574322374</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.896155674826111</v>
@@ -2367,7 +2367,7 @@
         <v>1.906373750710115</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.302501022658788</v>
+        <v>1.302501022658789</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.204119204061715</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.264349541809893</v>
+        <v>0.979508316194926</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4787582573773145</v>
+        <v>-0.484616130999616</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.009725980786783</v>
+        <v>-1.151855353855683</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.6526390155642415</v>
+        <v>0.5747859540237737</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.7363976310984368</v>
+        <v>0.6237039962803416</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.2010279338916403</v>
+        <v>0.1485522722448692</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.32964237689627</v>
+        <v>1.256744415428307</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.5097281999918979</v>
+        <v>0.5074305112791719</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.09129975332178143</v>
+        <v>-0.1729361977621331</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.961385602845661</v>
+        <v>3.816457751970481</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.078166576728856</v>
+        <v>2.253104940623885</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.50700007127263</v>
+        <v>1.582535406108927</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.129604830988906</v>
+        <v>3.184732350484193</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.176611537514954</v>
+        <v>3.218049466910009</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.535535265513726</v>
+        <v>2.53484884286621</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.228585926362679</v>
+        <v>3.158837057903999</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.391348365546043</v>
+        <v>2.24316373626231</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.667438066453792</v>
+        <v>1.661565773787374</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1114681305141387</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.03768720060995605</v>
+        <v>0.03768720060995625</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.2951612605960689</v>
@@ -2472,7 +2472,7 @@
         <v>0.2967518368334685</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2027512028045339</v>
+        <v>0.2027512028045341</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3305019810728335</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1618044632505992</v>
+        <v>0.1336208254973631</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.06560396315746597</v>
+        <v>-0.06161069656070318</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1378816073982841</v>
+        <v>-0.1515007449977602</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.09281629833289928</v>
+        <v>0.08067805455774095</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1046333339389819</v>
+        <v>0.08457570902382099</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02634203619926438</v>
+        <v>0.01885204434640861</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1869841795452493</v>
+        <v>0.1774046257536055</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.06992828072767586</v>
+        <v>0.07366959138622135</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.01555918816255417</v>
+        <v>-0.02477635558589548</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.614268377525546</v>
+        <v>0.6002041471155322</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3302062177870949</v>
+        <v>0.3741382092655061</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2362861221325333</v>
+        <v>0.2484746786918719</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.525375256486696</v>
+        <v>0.5486663647530354</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.5486894717255117</v>
+        <v>0.5526790400332797</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4375792762267283</v>
+        <v>0.4313229713576252</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5181530502782561</v>
+        <v>0.5031755987760221</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3730368638795375</v>
+        <v>0.3587027768437235</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2629414369996761</v>
+        <v>0.2671309328300703</v>
       </c>
     </row>
     <row r="58">
